--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Omg-Tnfrsf1b.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Omg-Tnfrsf1b.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.084811666666667</v>
+        <v>1.10087</v>
       </c>
       <c r="H2">
-        <v>15.254435</v>
+        <v>3.30261</v>
       </c>
       <c r="I2">
-        <v>0.5108142255059609</v>
+        <v>0.1843884439613191</v>
       </c>
       <c r="J2">
-        <v>0.5108142255059609</v>
+        <v>0.1843884439613191</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>87.481206</v>
+        <v>5.916202333333334</v>
       </c>
       <c r="N2">
-        <v>262.443618</v>
+        <v>17.748607</v>
       </c>
       <c r="O2">
-        <v>0.8890954013316028</v>
+        <v>0.3515586392055965</v>
       </c>
       <c r="P2">
-        <v>0.8890954013316029</v>
+        <v>0.3515586392055965</v>
       </c>
       <c r="Q2">
-        <v>444.82545688287</v>
+        <v>6.512969662696667</v>
       </c>
       <c r="R2">
-        <v>4003.42911194583</v>
+        <v>58.61672696427</v>
       </c>
       <c r="S2">
-        <v>0.4541625788321141</v>
+        <v>0.06482335044427873</v>
       </c>
       <c r="T2">
-        <v>0.4541625788321142</v>
+        <v>0.06482335044427873</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.084811666666667</v>
+        <v>1.10087</v>
       </c>
       <c r="H3">
-        <v>15.254435</v>
+        <v>3.30261</v>
       </c>
       <c r="I3">
-        <v>0.5108142255059609</v>
+        <v>0.1843884439613191</v>
       </c>
       <c r="J3">
-        <v>0.5108142255059609</v>
+        <v>0.1843884439613191</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>31.096729</v>
       </c>
       <c r="O3">
-        <v>0.1053481847303107</v>
+        <v>0.6159539016771971</v>
       </c>
       <c r="P3">
-        <v>0.1053481847303107</v>
+        <v>0.6159539016771971</v>
       </c>
       <c r="Q3">
-        <v>52.70700347145723</v>
+        <v>11.41115201807667</v>
       </c>
       <c r="R3">
-        <v>474.363031243115</v>
+        <v>102.70036816269</v>
       </c>
       <c r="S3">
-        <v>0.05381335139147255</v>
+        <v>0.1135747814821617</v>
       </c>
       <c r="T3">
-        <v>0.05381335139147256</v>
+        <v>0.1135747814821617</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.084811666666667</v>
+        <v>1.10087</v>
       </c>
       <c r="H4">
-        <v>15.254435</v>
+        <v>3.30261</v>
       </c>
       <c r="I4">
-        <v>0.5108142255059609</v>
+        <v>0.1843884439613191</v>
       </c>
       <c r="J4">
-        <v>0.5108142255059609</v>
+        <v>0.1843884439613191</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.546715</v>
+        <v>0.5467150000000001</v>
       </c>
       <c r="N4">
         <v>1.640145</v>
       </c>
       <c r="O4">
-        <v>0.005556413938086396</v>
+        <v>0.03248745911720639</v>
       </c>
       <c r="P4">
-        <v>0.005556413938086396</v>
+        <v>0.03248745911720639</v>
       </c>
       <c r="Q4">
-        <v>2.779942810341667</v>
+        <v>0.6018621420500001</v>
       </c>
       <c r="R4">
-        <v>25.019485293075</v>
+        <v>5.416759278450001</v>
       </c>
       <c r="S4">
-        <v>0.002838295282374128</v>
+        <v>0.005990312034878655</v>
       </c>
       <c r="T4">
-        <v>0.002838295282374128</v>
+        <v>0.005990312034878655</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>8.06705</v>
       </c>
       <c r="I5">
-        <v>0.2701354653822224</v>
+        <v>0.4503925067925547</v>
       </c>
       <c r="J5">
-        <v>0.2701354653822224</v>
+        <v>0.4503925067925547</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>87.481206</v>
+        <v>5.916202333333334</v>
       </c>
       <c r="N5">
-        <v>262.443618</v>
+        <v>17.748607</v>
       </c>
       <c r="O5">
-        <v>0.8890954013316028</v>
+        <v>0.3515586392055965</v>
       </c>
       <c r="P5">
-        <v>0.8890954013316029</v>
+        <v>0.3515586392055965</v>
       </c>
       <c r="Q5">
-        <v>235.2384209541</v>
+        <v>15.90876667770556</v>
       </c>
       <c r="R5">
-        <v>2117.1457885869</v>
+        <v>143.17890009935</v>
       </c>
       <c r="S5">
-        <v>0.2401762000079063</v>
+        <v>0.1583393767963879</v>
       </c>
       <c r="T5">
-        <v>0.2401762000079063</v>
+        <v>0.1583393767963879</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>8.06705</v>
       </c>
       <c r="I6">
-        <v>0.2701354653822224</v>
+        <v>0.4503925067925547</v>
       </c>
       <c r="J6">
-        <v>0.2701354653822224</v>
+        <v>0.4503925067925547</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>31.096729</v>
       </c>
       <c r="O6">
-        <v>0.1053481847303107</v>
+        <v>0.6159539016771971</v>
       </c>
       <c r="P6">
-        <v>0.1053481847303107</v>
+        <v>0.6159539016771971</v>
       </c>
       <c r="Q6">
         <v>27.87320751993889</v>
@@ -818,10 +818,10 @@
         <v>250.85886767945</v>
       </c>
       <c r="S6">
-        <v>0.02845828090929482</v>
+        <v>0.2774210218450476</v>
       </c>
       <c r="T6">
-        <v>0.02845828090929482</v>
+        <v>0.2774210218450475</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>8.06705</v>
       </c>
       <c r="I7">
-        <v>0.2701354653822224</v>
+        <v>0.4503925067925547</v>
       </c>
       <c r="J7">
-        <v>0.2701354653822224</v>
+        <v>0.4503925067925547</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,16 +862,16 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.546715</v>
+        <v>0.5467150000000001</v>
       </c>
       <c r="N7">
         <v>1.640145</v>
       </c>
       <c r="O7">
-        <v>0.005556413938086396</v>
+        <v>0.03248745911720639</v>
       </c>
       <c r="P7">
-        <v>0.005556413938086396</v>
+        <v>0.03248745911720639</v>
       </c>
       <c r="Q7">
         <v>1.470125746916667</v>
@@ -880,10 +880,10 @@
         <v>13.23113172225</v>
       </c>
       <c r="S7">
-        <v>0.001500984465021236</v>
+        <v>0.01463210815111922</v>
       </c>
       <c r="T7">
-        <v>0.001500984465021235</v>
+        <v>0.01463210815111922</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,13 +909,13 @@
         <v>2.180498333333333</v>
       </c>
       <c r="H8">
-        <v>6.541495</v>
+        <v>6.541494999999999</v>
       </c>
       <c r="I8">
-        <v>0.2190503091118167</v>
+        <v>0.3652190492461261</v>
       </c>
       <c r="J8">
-        <v>0.2190503091118167</v>
+        <v>0.3652190492461262</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>87.481206</v>
+        <v>5.916202333333334</v>
       </c>
       <c r="N8">
-        <v>262.443618</v>
+        <v>17.748607</v>
       </c>
       <c r="O8">
-        <v>0.8890954013316028</v>
+        <v>0.3515586392055965</v>
       </c>
       <c r="P8">
-        <v>0.8890954013316029</v>
+        <v>0.3515586392055965</v>
       </c>
       <c r="Q8">
-        <v>190.75262388099</v>
+        <v>12.90026932749611</v>
       </c>
       <c r="R8">
-        <v>1716.77361492891</v>
+        <v>116.102423947465</v>
       </c>
       <c r="S8">
-        <v>0.1947566224915823</v>
+        <v>0.1283959119649299</v>
       </c>
       <c r="T8">
-        <v>0.1947566224915823</v>
+        <v>0.1283959119649299</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,13 +971,13 @@
         <v>2.180498333333333</v>
       </c>
       <c r="H9">
-        <v>6.541495</v>
+        <v>6.541494999999999</v>
       </c>
       <c r="I9">
-        <v>0.2190503091118167</v>
+        <v>0.3652190492461261</v>
       </c>
       <c r="J9">
-        <v>0.2190503091118167</v>
+        <v>0.3652190492461262</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>31.096729</v>
       </c>
       <c r="O9">
-        <v>0.1053481847303107</v>
+        <v>0.6159539016771971</v>
       </c>
       <c r="P9">
-        <v>0.1053481847303107</v>
+        <v>0.6159539016771971</v>
       </c>
       <c r="Q9">
         <v>22.60212191887278</v>
@@ -1004,10 +1004,10 @@
         <v>203.419097269855</v>
       </c>
       <c r="S9">
-        <v>0.02307655242954332</v>
+        <v>0.2249580983499878</v>
       </c>
       <c r="T9">
-        <v>0.02307655242954332</v>
+        <v>0.2249580983499878</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,13 +1033,13 @@
         <v>2.180498333333333</v>
       </c>
       <c r="H10">
-        <v>6.541495</v>
+        <v>6.541494999999999</v>
       </c>
       <c r="I10">
-        <v>0.2190503091118167</v>
+        <v>0.3652190492461261</v>
       </c>
       <c r="J10">
-        <v>0.2190503091118167</v>
+        <v>0.3652190492461262</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,16 +1048,16 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.546715</v>
+        <v>0.5467150000000001</v>
       </c>
       <c r="N10">
         <v>1.640145</v>
       </c>
       <c r="O10">
-        <v>0.005556413938086396</v>
+        <v>0.03248745911720639</v>
       </c>
       <c r="P10">
-        <v>0.005556413938086396</v>
+        <v>0.03248745911720639</v>
       </c>
       <c r="Q10">
         <v>1.192111146308333</v>
@@ -1066,10 +1066,10 @@
         <v>10.729000316775</v>
       </c>
       <c r="S10">
-        <v>0.001217134190691032</v>
+        <v>0.01186503893120851</v>
       </c>
       <c r="T10">
-        <v>0.001217134190691032</v>
+        <v>0.01186503893120851</v>
       </c>
     </row>
   </sheetData>
